--- a/doc/resources/MapConfig.xlsx
+++ b/doc/resources/MapConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>MapConfig</t>
   </si>
@@ -39,10 +39,14 @@
     <t>grids</t>
   </si>
   <si>
+    <t xml:space="preserve">[{"x":3000,"y":18000},{"x":3000,"y":19000},{"x":3000,"y":20000},{"x":3000,"y":21000},{"x":3000,"y":22000},{"x":4000,"y":17000},{"x":4000,"y":18000},{"x":4000,"y":19000},{"x":4000,"y":20000},{"x":4000,"y":21000},{"x":4000,"y":22000},{"x":4000,"y":23000},{"x":5000,"y":16000},{"x":5000,"y":17000},{"x":5000,"y":18000},{"x":5000,"y":19000},{"x":5000,"y":20000},{"x":5000,"y":21000},{"x":5000,"y":22000},{"x":5000,"y":23000},{"x":6000,"y":16000},{"x":6000,"y":17000},{"x":6000,"y":18000},{"x":6000,"y":19000},{"x":6000,"y":20000},{"x":6000,"y":21000},{"x":6000,"y":22000},{"x":6000,"y":23000},{"x":7000,"y":16000},{"x":7000,"y":17000},{"x":7000,"y":18000},{"x":7000,"y":19000},{"x":7000,"y":20000},{"x":7000,"y":21000},{"x":7000,"y":22000},{"x":8000,"y":16000},{"x":8000,"y":17000},{"x":8000,"y":18000},{"x":8000,"y":19000},{"x":8000,"y":20000},{"x":8000,"y":21000},{"x":8000,"y":22000},{"x":9000,"y":16000},{"x":9000,"y":17000},{"x":9000,"y":18000},{"x":9000,"y":19000},{"x":9000,"y":20000},{"x":9000,"y":21000},{"x":10000,"y":17000},{"x":10000,"y":18000},{"x":10000,"y":19000},{"x":10000,"y":20000},{"x":10000,"y":21000},{"x":11000,"y":17000},{"x":11000,"y":18000},{"x":11000,"y":19000},{"x":11000,"y":20000},{"x":12000,"y":17000},{"x":12000,"y":18000},{"x":12000,"y":19000},{"x":12000,"y":20000},{"x":13000,"y":17000},{"x":13000,"y":18000},{"x":13000,"y":19000},{"x":13000,"y":20000},{"x":14000,"y":18000},{"x":14000,"y":19000},{"x":14000,"y":20000},{"x":15000,"y":19000},{"x":15000,"y":20000},{"x":16000,"y":19000},{"x":16000,"y":20000},{"x":17000,"y":18000},{"x":17000,"y":19000},{"x":17000,"y":20000},{"x":17000,"y":21000},{"x":18000,"y":18000},{"x":18000,"y":19000},{"x":18000,"y":20000},{"x":18000,"y":21000},{"x":19000,"y":17000},{"x":19000,"y":18000},{"x":19000,"y":19000},{"x":19000,"y":20000},{"x":20000,"y":18000},{"x":20000,"y":19000},{"x":20000,"y":20000},{"x":20000,"y":21000},{"x":21000,"y":18000},{"x":21000,"y":19000},{"x":21000,"y":20000},{"x":22000,"y":18000},{"x":22000,"y":19000},{"x":22000,"y":20000},{"x":23000,"y":18000},{"x":23000,"y":19000},{"x":24000,"y":18000},{"x":24000,"y":19000},{"x":25000,"y":18000},{"x":25000,"y":19000},{"x":26000,"y":19000},{"x":26000,"y":20000},{"x":26000,"y":21000},{"x":26000,"y":22000},{"x":27000,"y":20000},{"x":27000,"y":21000},{"x":27000,"y":22000},{"x":27000,"y":23000},{"x":28000,"y":21000},{"x":28000,"y":22000},{"x":28000,"y":23000},{"x":28000,"y":24000},{"x":28000,"y":25000},{"x":29000,"y":21000},{"x":29000,"y":22000},{"x":29000,"y":23000},{"x":29000,"y":24000},{"x":29000,"y":25000},{"x":30000,"y":22000},{"x":30000,"y":23000},{"x":30000,"y":24000}]
+</t>
+  </si>
+  <si>
     <t>END</t>
   </si>
   <si>
-    <t xml:space="preserve">[{"x":3000,"y":18000},{"x":3000,"y":19000},{"x":3000,"y":20000},{"x":3000,"y":21000},{"x":3000,"y":22000},{"x":4000,"y":17000},{"x":4000,"y":18000},{"x":4000,"y":19000},{"x":4000,"y":20000},{"x":4000,"y":21000},{"x":4000,"y":22000},{"x":4000,"y":23000},{"x":5000,"y":16000},{"x":5000,"y":17000},{"x":5000,"y":18000},{"x":5000,"y":19000},{"x":5000,"y":20000},{"x":5000,"y":21000},{"x":5000,"y":22000},{"x":5000,"y":23000},{"x":6000,"y":16000},{"x":6000,"y":17000},{"x":6000,"y":18000},{"x":6000,"y":19000},{"x":6000,"y":20000},{"x":6000,"y":21000},{"x":6000,"y":22000},{"x":6000,"y":23000},{"x":7000,"y":16000},{"x":7000,"y":17000},{"x":7000,"y":18000},{"x":7000,"y":19000},{"x":7000,"y":20000},{"x":7000,"y":21000},{"x":7000,"y":22000},{"x":8000,"y":16000},{"x":8000,"y":17000},{"x":8000,"y":18000},{"x":8000,"y":19000},{"x":8000,"y":20000},{"x":8000,"y":21000},{"x":8000,"y":22000},{"x":9000,"y":16000},{"x":9000,"y":17000},{"x":9000,"y":18000},{"x":9000,"y":19000},{"x":9000,"y":20000},{"x":9000,"y":21000},{"x":10000,"y":17000},{"x":10000,"y":18000},{"x":10000,"y":19000},{"x":10000,"y":20000},{"x":10000,"y":21000},{"x":11000,"y":17000},{"x":11000,"y":18000},{"x":11000,"y":19000},{"x":11000,"y":20000},{"x":12000,"y":17000},{"x":12000,"y":18000},{"x":12000,"y":19000},{"x":12000,"y":20000},{"x":13000,"y":17000},{"x":13000,"y":18000},{"x":13000,"y":19000},{"x":13000,"y":20000},{"x":14000,"y":18000},{"x":14000,"y":19000},{"x":14000,"y":20000},{"x":15000,"y":19000},{"x":15000,"y":20000},{"x":16000,"y":19000},{"x":16000,"y":20000},{"x":17000,"y":18000},{"x":17000,"y":19000},{"x":17000,"y":20000},{"x":17000,"y":21000},{"x":18000,"y":18000},{"x":18000,"y":19000},{"x":18000,"y":20000},{"x":18000,"y":21000},{"x":19000,"y":17000},{"x":19000,"y":18000},{"x":19000,"y":19000},{"x":19000,"y":20000},{"x":20000,"y":18000},{"x":20000,"y":19000},{"x":20000,"y":20000},{"x":20000,"y":21000},{"x":21000,"y":18000},{"x":21000,"y":19000},{"x":21000,"y":20000},{"x":22000,"y":18000},{"x":22000,"y":19000},{"x":22000,"y":20000},{"x":23000,"y":18000},{"x":23000,"y":19000},{"x":24000,"y":18000},{"x":24000,"y":19000},{"x":25000,"y":18000},{"x":25000,"y":19000},{"x":26000,"y":19000},{"x":26000,"y":20000},{"x":26000,"y":21000},{"x":26000,"y":22000},{"x":27000,"y":20000},{"x":27000,"y":21000},{"x":27000,"y":22000},{"x":27000,"y":23000},{"x":28000,"y":21000},{"x":28000,"y":22000},{"x":28000,"y":23000},{"x":28000,"y":24000},{"x":28000,"y":25000},{"x":29000,"y":21000},{"x":29000,"y":22000},{"x":29000,"y":23000},{"x":29000,"y":24000},{"x":29000,"y":25000},{"x":30000,"y":22000},{"x":30000,"y":23000},{"x":30000,"y":24000}]
+    <t xml:space="preserve">[{"x":0,"y":0},{"x":0,"y":1000},{"x":0,"y":2000},{"x":0,"y":3000},{"x":0,"y":4000},{"x":0,"y":5000},{"x":0,"y":6000},{"x":0,"y":7000},{"x":0,"y":8000},{"x":0,"y":9000},{"x":0,"y":10000},{"x":1000,"y":0},{"x":1000,"y":1000},{"x":1000,"y":2000},{"x":1000,"y":3000},{"x":1000,"y":4000},{"x":1000,"y":5000},{"x":1000,"y":6000},{"x":1000,"y":7000},{"x":1000,"y":8000},{"x":1000,"y":9000},{"x":1000,"y":10000},{"x":2000,"y":0},{"x":2000,"y":1000},{"x":2000,"y":2000},{"x":2000,"y":3000},{"x":2000,"y":4000},{"x":2000,"y":5000},{"x":2000,"y":6000},{"x":2000,"y":7000},{"x":2000,"y":8000},{"x":2000,"y":9000},{"x":2000,"y":10000},{"x":3000,"y":0},{"x":3000,"y":1000},{"x":3000,"y":2000},{"x":3000,"y":3000},{"x":3000,"y":4000},{"x":3000,"y":5000},{"x":3000,"y":6000},{"x":3000,"y":7000},{"x":3000,"y":8000},{"x":3000,"y":9000},{"x":3000,"y":10000},{"x":4000,"y":0},{"x":4000,"y":1000},{"x":4000,"y":2000},{"x":4000,"y":3000},{"x":4000,"y":4000},{"x":4000,"y":5000},{"x":4000,"y":6000},{"x":4000,"y":7000},{"x":4000,"y":8000},{"x":4000,"y":9000},{"x":4000,"y":10000},{"x":5000,"y":0},{"x":5000,"y":1000},{"x":5000,"y":2000},{"x":5000,"y":3000},{"x":5000,"y":4000},{"x":5000,"y":5000},{"x":5000,"y":6000},{"x":5000,"y":7000},{"x":5000,"y":8000},{"x":5000,"y":9000},{"x":5000,"y":10000},{"x":6000,"y":0},{"x":6000,"y":1000},{"x":6000,"y":2000},{"x":6000,"y":3000},{"x":6000,"y":4000},{"x":6000,"y":5000},{"x":6000,"y":6000},{"x":6000,"y":7000},{"x":6000,"y":8000},{"x":6000,"y":9000},{"x":6000,"y":10000},{"x":7000,"y":0},{"x":7000,"y":1000},{"x":7000,"y":2000},{"x":7000,"y":3000},{"x":7000,"y":4000},{"x":7000,"y":5000},{"x":7000,"y":6000},{"x":7000,"y":7000},{"x":7000,"y":8000},{"x":7000,"y":9000},{"x":7000,"y":10000},{"x":8000,"y":0},{"x":8000,"y":1000},{"x":8000,"y":2000},{"x":8000,"y":3000},{"x":8000,"y":4000},{"x":8000,"y":5000},{"x":8000,"y":6000},{"x":8000,"y":7000},{"x":8000,"y":8000},{"x":8000,"y":9000},{"x":8000,"y":10000},{"x":9000,"y":0},{"x":9000,"y":1000},{"x":9000,"y":2000},{"x":9000,"y":3000},{"x":9000,"y":4000},{"x":9000,"y":5000},{"x":9000,"y":6000},{"x":9000,"y":7000},{"x":9000,"y":8000},{"x":9000,"y":9000},{"x":9000,"y":10000},{"x":10000,"y":0},{"x":10000,"y":1000},{"x":10000,"y":2000},{"x":10000,"y":3000},{"x":10000,"y":4000},{"x":10000,"y":5000},{"x":10000,"y":6000},{"x":10000,"y":7000},{"x":10000,"y":8000},{"x":10000,"y":9000},{"x":10000,"y":10000}]
 </t>
   </si>
 </sst>
@@ -51,12 +55,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,100 +69,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,6 +162,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -211,6 +186,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,25 +222,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,7 +312,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,145 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,30 +413,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,17 +427,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -493,6 +455,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -516,159 +502,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1021,13 +1021,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E24" sqref="F25 E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10.375" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
@@ -1059,10 +1059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="14" customHeight="1" spans="1:6">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
+    <row r="3" ht="14" customHeight="1" spans="2:6">
       <c r="B3">
         <v>21002</v>
       </c>
@@ -1076,7 +1073,27 @@
         <v>1000</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="14" customHeight="1" spans="1:6">
+      <c r="A4" t="s">
         <v>8</v>
+      </c>
+      <c r="B4">
+        <v>21003</v>
+      </c>
+      <c r="C4">
+        <v>10000</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
